--- a/Run-Env/iManager/src/main/webapp/template/List_TraceLog.xlsx
+++ b/Run-Env/iManager/src/main/webapp/template/List_TraceLog.xlsx
@@ -3,23 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ESB_workspace\workspace\Git\iGate_v5\Custom\iManager\src\main\webapp\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>From</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -61,26 +57,10 @@
     <t>로그 분류</t>
   </si>
   <si>
-    <t>메시지 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그 분류</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>어댑터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터페이스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대외거래</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -93,15 +73,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>응답시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스턴스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커넥터</t>
+    <t>세션  ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대외 메세지  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대외 거래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어댑터 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터페이스 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스 ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -522,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="42.5" customWidth="1"/>
-    <col min="13" max="13" width="84.375" customWidth="1"/>
+    <col min="1" max="10" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -546,10 +550,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -565,7 +566,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="4" t="s">
@@ -575,85 +576,79 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>7</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -664,11 +659,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -676,31 +668,32 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
